--- a/medicine/Enfance/Lisa_Bresner/Lisa_Bresner.xlsx
+++ b/medicine/Enfance/Lisa_Bresner/Lisa_Bresner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lisa Bresner est une écrivaine et sinologue[1] française, née le 29 octobre 1971 dans le 9e arrondissement de Paris et morte le 28 juillet 2007 à Nantes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lisa Bresner est une écrivaine et sinologue française, née le 29 octobre 1971 dans le 9e arrondissement de Paris et morte le 28 juillet 2007 à Nantes.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir appris le chinois, puis le japonais, Lisa Lucette Martine Bresner commence à écrire à l'âge de 14 ans, et publie son premier roman chez Gallimard à 20 ans[2]. 
-Lisa Bresner est pensionnaire de la villa Médicis en 1995-1996[3] et pensionnaire de la villa Kujoyama en 2001[4],[5].
-Lisa Bresner se suicide le 28 juillet 2007 à Nantes[2],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir appris le chinois, puis le japonais, Lisa Lucette Martine Bresner commence à écrire à l'âge de 14 ans, et publie son premier roman chez Gallimard à 20 ans. 
+Lisa Bresner est pensionnaire de la villa Médicis en 1995-1996 et pensionnaire de la villa Kujoyama en 2001,.
+Lisa Bresner se suicide le 28 juillet 2007 à Nantes,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 11 octobre 2008, un cerisier du Japon est planté au cœur du jardin japonais situé sur l’île de Versailles à Nantes, à côté d'une pierre commémorative gravée à son nom, en présence du maire Jean-Marc Ayrault[7]. La quatrième médiathèque de la Bibliothèque municipale de Nantes, ouverte en octobre 2013 dans le quartier de Bellevue, porte son nom depuis le 12 décembre 2011[8]. Une grande exposition intitulée Lisa Bresner, les chemins d’une œuvre lui est consacrée à la médiathèque Jacques-Demy de Nantes du 30 octobre 2013 au 2 mars 2014[9]. François Cheng lui a dédié un poème dans son recueil Enfin le royaume en 2018.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 octobre 2008, un cerisier du Japon est planté au cœur du jardin japonais situé sur l’île de Versailles à Nantes, à côté d'une pierre commémorative gravée à son nom, en présence du maire Jean-Marc Ayrault. La quatrième médiathèque de la Bibliothèque municipale de Nantes, ouverte en octobre 2013 dans le quartier de Bellevue, porte son nom depuis le 12 décembre 2011. Une grande exposition intitulée Lisa Bresner, les chemins d’une œuvre lui est consacrée à la médiathèque Jacques-Demy de Nantes du 30 octobre 2013 au 2 mars 2014. François Cheng lui a dédié un poème dans son recueil Enfin le royaume en 2018.
 Elle apparaît dans le livre d'Hélène Devynck, Impunité, paru en septembre 2022 aux éditions du Seuil, comme une des victimes présumées du présentateur de télévision, Patrick Poivre d'Arvor.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lisa Bresner, Le Sculpteur de femmes : roman, Paris, Gallimard, 1992, 77 p. (ISBN 978-2-07-072751-3)
 Lisa Bresner, Ma tendre ennemie : roman, Paris, Gallimard, 1994, 123 p. (ISBN 2-07-073423-4, présentation en ligne)
@@ -640,11 +658,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Réalisatrice
-2004 : Misako (court-métrage), avec Lika, Arnaud Lesimple, Rasim Biyikli, Béatrice Templé
-2005 : Mes Autres (court-métrage), avec Jeanne Moreau, Clara Massé
-Actrice
-Feuilleton, réalisé par Enola S. Cluzeau</t>
+          <t>Réalisatrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2004 : Misako (court-métrage), avec Lika, Arnaud Lesimple, Rasim Biyikli, Béatrice Templé
+2005 : Mes Autres (court-métrage), avec Jeanne Moreau, Clara Massé</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lisa_Bresner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lisa_Bresner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Actrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Feuilleton, réalisé par Enola S. Cluzeau</t>
         </is>
       </c>
     </row>
